--- a/uni_craw_thuvienphapluat/link_for_download_pdf_18022025.xlsx
+++ b/uni_craw_thuvienphapluat/link_for_download_pdf_18022025.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_thuvienphapluat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_08ADA1F89CDB0F9289E37DA1696B27C379796DD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E11BF7D-C322-43B2-8711-D6691FB3AD2C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -880,8 +886,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,13 +963,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1001,7 +1015,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1035,6 +1049,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1069,9 +1084,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1244,14 +1260,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1299,7 +1321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1333,7 +1355,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1350,7 +1372,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1367,7 +1389,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1401,7 +1423,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1418,7 +1440,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1452,7 +1474,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1486,7 +1508,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1503,7 +1525,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1520,7 +1542,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1537,7 +1559,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1554,7 +1576,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1571,7 +1593,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1588,7 +1610,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1605,7 +1627,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1656,7 +1678,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1673,7 +1695,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1690,7 +1712,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1707,7 +1729,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1724,7 +1746,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1741,7 +1763,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1775,7 +1797,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1792,7 +1814,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1826,7 +1848,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1860,7 +1882,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1877,7 +1899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -1894,7 +1916,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -1911,7 +1933,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1928,7 +1950,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -1945,7 +1967,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1962,7 +1984,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1979,7 +2001,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2030,7 +2052,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2047,7 +2069,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2064,7 +2086,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2081,7 +2103,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2098,7 +2120,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2115,7 +2137,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -2132,7 +2154,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -2149,7 +2171,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -2166,7 +2188,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -2200,7 +2222,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -2217,7 +2239,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -2234,7 +2256,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -2251,7 +2273,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>62</v>
       </c>
@@ -2268,7 +2290,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>63</v>
       </c>
@@ -2285,7 +2307,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>64</v>
       </c>
@@ -2302,7 +2324,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>65</v>
       </c>
@@ -2319,7 +2341,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>66</v>
       </c>
@@ -2336,7 +2358,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>67</v>
       </c>
@@ -2353,7 +2375,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>68</v>
       </c>
@@ -2370,7 +2392,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>69</v>
       </c>
@@ -2387,7 +2409,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>70</v>
       </c>
@@ -2404,7 +2426,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>71</v>
       </c>
@@ -2421,7 +2443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>72</v>
       </c>
@@ -2438,7 +2460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>73</v>
       </c>
@@ -2455,7 +2477,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>75</v>
       </c>
@@ -2472,7 +2494,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>76</v>
       </c>
@@ -2489,7 +2511,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -2506,7 +2528,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>78</v>
       </c>
@@ -2523,7 +2545,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>79</v>
       </c>
@@ -2540,7 +2562,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>80</v>
       </c>
@@ -2557,7 +2579,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>81</v>
       </c>
@@ -2574,7 +2596,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>82</v>
       </c>
@@ -2591,7 +2613,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>83</v>
       </c>
@@ -2608,7 +2630,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>84</v>
       </c>
@@ -2625,7 +2647,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>85</v>
       </c>
@@ -2642,7 +2664,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>86</v>
       </c>
@@ -2659,7 +2681,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>87</v>
       </c>
@@ -2676,7 +2698,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>88</v>
       </c>
@@ -2693,7 +2715,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>89</v>
       </c>
@@ -2710,7 +2732,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>90</v>
       </c>
@@ -2729,92 +2751,92 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
-    <hyperlink ref="B86" r:id="rId85"/>
-    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
